--- a/contextspecific/context_info.xlsx
+++ b/contextspecific/context_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/Analysis/MSNAEducation/contextspecific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="544" documentId="8_{0D5FD4D3-65A8-4B21-9AB8-E9E825B880B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{805EC4B4-A190-4D32-B10C-870F1E45E5C7}"/>
+  <xr:revisionPtr revIDLastSave="578" documentId="8_{0D5FD4D3-65A8-4B21-9AB8-E9E825B880B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E45A537A-8F10-4E7B-B5CD-43C58456DCAB}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11265" activeTab="1" xr2:uid="{E7005411-AC04-408A-88F1-7D900FA9C136}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11265" activeTab="3" xr2:uid="{E7005411-AC04-408A-88F1-7D900FA9C136}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
   <si>
     <t>education_access</t>
   </si>
@@ -752,21 +752,6 @@
     <t xml:space="preserve">education_niveau </t>
   </si>
   <si>
-    <t>primary, 6, 5</t>
-  </si>
-  <si>
-    <t>intermediate, 11, 1</t>
-  </si>
-  <si>
-    <t>lower secondary, 12, 3</t>
-  </si>
-  <si>
-    <t>upper secondary, 15, 2</t>
-  </si>
-  <si>
-    <t>kindergarden, 3,3</t>
-  </si>
-  <si>
     <r>
       <t>Please list the</t>
     </r>
@@ -836,14 +821,38 @@
     </r>
   </si>
   <si>
-    <t>november</t>
-  </si>
-  <si>
     <t>When (which month) does the school year start for 2023-2024?
 When (which month) has the school year started for 2023-2024?</t>
   </si>
   <si>
     <t>level6</t>
+  </si>
+  <si>
+    <t>kindergarden, 4,3</t>
+  </si>
+  <si>
+    <t>primary, 7, 8</t>
+  </si>
+  <si>
+    <t>lower secondary, 15, 2</t>
+  </si>
+  <si>
+    <t>upper secondary, 17, 2</t>
+  </si>
+  <si>
+    <t>level7</t>
+  </si>
+  <si>
+    <t>When (which month) has the data collection finished?</t>
+  </si>
+  <si>
+    <t>data_collection</t>
+  </si>
+  <si>
+    <t>september</t>
+  </si>
+  <si>
+    <t>august</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1290,9 +1299,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1332,9 +1338,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1540,20 +1543,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1908,1117 +1905,1119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9E328-A731-4E3C-8AA8-F5577ADA7429}">
-  <dimension ref="A1:K195"/>
+  <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="4.6796875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="4.6796875" style="26" customWidth="1"/>
     <col min="2" max="2" width="5.58984375" customWidth="1"/>
-    <col min="3" max="3" width="46.58984375" style="50" customWidth="1"/>
-    <col min="4" max="4" width="26.2265625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="50" style="48" customWidth="1"/>
+    <col min="4" max="4" width="26.2265625" style="9" customWidth="1"/>
     <col min="5" max="5" width="38.36328125" customWidth="1"/>
     <col min="6" max="6" width="41.04296875" customWidth="1"/>
-    <col min="7" max="7" width="16.58984375" style="28" customWidth="1"/>
-    <col min="8" max="11" width="8.7265625" style="28"/>
+    <col min="7" max="7" width="16.58984375" style="26" customWidth="1"/>
+    <col min="8" max="11" width="8.7265625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C1" s="45"/>
-      <c r="D1" s="30" t="s">
+    <row r="1" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C1" s="43"/>
+      <c r="D1" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C2" s="45"/>
-      <c r="D2" s="29"/>
-    </row>
-    <row r="3" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="45"/>
-      <c r="D3" s="29"/>
-    </row>
-    <row r="4" spans="2:7" s="28" customFormat="1" ht="34.5" x14ac:dyDescent="1.65">
-      <c r="B4" s="37" t="s">
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C2" s="43"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="43"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="2:7" s="26" customFormat="1" ht="34.5" x14ac:dyDescent="1.65">
+      <c r="B4" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C4" s="44"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
       <c r="B5" s="5"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
       <c r="B6" s="5"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="36"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B8" s="5"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:7" ht="21.75" x14ac:dyDescent="1.1000000000000001">
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="19"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="2:7" ht="17" customHeight="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="19"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="93"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="91"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B12" s="5"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:7" ht="29.5" x14ac:dyDescent="0.75">
       <c r="B13" s="5"/>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="94" t="s">
         <v>80</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="107">
-        <v>5</v>
+      <c r="E13" s="103">
+        <v>4</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B14" s="5"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="108"/>
+      <c r="C14" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>103</v>
+      </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B15" s="5"/>
       <c r="C15" s="104" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="109"/>
+        <v>89</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="103" t="s">
+        <v>104</v>
+      </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B16" s="5"/>
-      <c r="C16" s="105" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="107" t="s">
-        <v>104</v>
+      <c r="C16" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="103" t="s">
+        <v>105</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B17" s="5"/>
-      <c r="C17" s="105" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="107" t="s">
-        <v>100</v>
+      <c r="C17" s="104" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="103" t="s">
+        <v>106</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B18" s="5"/>
-      <c r="C18" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="107" t="s">
-        <v>101</v>
+      <c r="C18" s="104"/>
+      <c r="D18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B19" s="5"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="107" t="s">
+      <c r="C19" s="104"/>
+      <c r="D19" s="8" t="s">
         <v>102</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>96</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B20" s="5"/>
       <c r="C20" s="105"/>
-      <c r="D20" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="107" t="s">
-        <v>103</v>
+      <c r="D20" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>96</v>
       </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B21" s="5"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="50"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" ht="59" x14ac:dyDescent="0.75">
+      <c r="B22" s="5"/>
+      <c r="C22" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.75">
+      <c r="B23" s="5"/>
+      <c r="C23" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="107" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B22" s="5"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:6" ht="59" x14ac:dyDescent="0.75">
-      <c r="B23" s="5"/>
-      <c r="C23" s="96" t="s">
-        <v>107</v>
-      </c>
       <c r="D23" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="107" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B24" s="5"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="3"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B25" s="5"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B26" s="6"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="97"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="26"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B27" s="28"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B28" s="28"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B29" s="28"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B30" s="28"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B31" s="28"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.75">
-      <c r="B32" s="28"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B33" s="28"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B34" s="28"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B35" s="28"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B36" s="28"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B37" s="28"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B38" s="28"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B39" s="28"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-    </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B40" s="28"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B39" s="26"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="97"/>
+    </row>
+    <row r="40" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A40" s="49"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="98"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-    </row>
-    <row r="41" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A41" s="51"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A45" s="51"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A47" s="51"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A49" s="51"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="49"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A50" s="51"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B51" s="28"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="26"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B52" s="28"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B53" s="28"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="97"/>
+    </row>
+    <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="B53" s="99"/>
       <c r="C53" s="98"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-    </row>
-    <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B54" s="101"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="49"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="B54" s="26"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B55" s="28"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B56" s="28"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B57" s="28"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B58" s="28"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B59" s="28"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B60" s="28"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B61" s="28"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B62" s="28"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B63" s="28"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B64" s="28"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B65" s="28"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B66" s="28"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B67" s="28"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B68" s="28"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B69" s="28"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B70" s="28"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B71" s="28"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="75"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="26"/>
+    </row>
+    <row r="70" spans="2:7" ht="15" x14ac:dyDescent="0.75">
+      <c r="B70" s="26"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="73"/>
+    </row>
+    <row r="71" spans="2:7" ht="15" x14ac:dyDescent="0.75">
+      <c r="B71" s="26"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="31"/>
     </row>
     <row r="72" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B72" s="28"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="33"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="78"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="31"/>
     </row>
     <row r="73" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B73" s="28"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="33"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="78"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="31"/>
     </row>
     <row r="74" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B74" s="28"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="33"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="78"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="31"/>
     </row>
     <row r="75" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B75" s="28"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="78"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="33"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="31"/>
     </row>
     <row r="76" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B76" s="28"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="33"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="31"/>
     </row>
     <row r="77" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B77" s="28"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="33"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="31"/>
     </row>
     <row r="78" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B78" s="28"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="33"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="31"/>
     </row>
     <row r="79" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B79" s="28"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="81"/>
-      <c r="E79" s="79"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="33"/>
-    </row>
-    <row r="80" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B80" s="28"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="81"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="33"/>
-    </row>
-    <row r="81" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B81" s="28"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="78"/>
-      <c r="E81" s="80"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="33"/>
-    </row>
-    <row r="82" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C82" s="45"/>
-      <c r="D82" s="29"/>
-    </row>
-    <row r="83" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C83" s="45"/>
-      <c r="D83" s="29"/>
-    </row>
-    <row r="84" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C84" s="45"/>
-      <c r="D84" s="29"/>
-    </row>
-    <row r="85" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C85" s="45"/>
-      <c r="D85" s="29"/>
-    </row>
-    <row r="86" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C86" s="45"/>
-      <c r="D86" s="29"/>
-    </row>
-    <row r="87" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C87" s="45"/>
-      <c r="D87" s="29"/>
-    </row>
-    <row r="88" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C88" s="45"/>
-      <c r="D88" s="29"/>
-    </row>
-    <row r="89" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C89" s="45"/>
-      <c r="D89" s="29"/>
-    </row>
-    <row r="90" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C90" s="45"/>
-      <c r="D90" s="29"/>
-    </row>
-    <row r="91" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C91" s="45"/>
-      <c r="D91" s="29"/>
-    </row>
-    <row r="92" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C92" s="45"/>
-      <c r="D92" s="29"/>
-    </row>
-    <row r="93" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C93" s="45"/>
-      <c r="D93" s="29"/>
-    </row>
-    <row r="94" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C94" s="45"/>
-      <c r="D94" s="29"/>
-    </row>
-    <row r="95" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C95" s="45"/>
-      <c r="D95" s="29"/>
-    </row>
-    <row r="96" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C96" s="45"/>
-      <c r="D96" s="29"/>
-    </row>
-    <row r="97" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C97" s="45"/>
-      <c r="D97" s="29"/>
-    </row>
-    <row r="98" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C98" s="45"/>
-      <c r="D98" s="29"/>
-    </row>
-    <row r="99" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C99" s="45"/>
-      <c r="D99" s="29"/>
-    </row>
-    <row r="100" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C100" s="45"/>
-      <c r="D100" s="29"/>
-    </row>
-    <row r="101" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C101" s="45"/>
-      <c r="D101" s="29"/>
-    </row>
-    <row r="102" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C102" s="45"/>
-      <c r="D102" s="29"/>
-    </row>
-    <row r="103" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C103" s="45"/>
-      <c r="D103" s="29"/>
-    </row>
-    <row r="104" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C104" s="45"/>
-      <c r="D104" s="29"/>
-    </row>
-    <row r="105" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C105" s="45"/>
-      <c r="D105" s="29"/>
-    </row>
-    <row r="106" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C106" s="45"/>
-      <c r="D106" s="29"/>
-    </row>
-    <row r="107" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C107" s="45"/>
-      <c r="D107" s="29"/>
-    </row>
-    <row r="108" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C108" s="45"/>
-      <c r="D108" s="29"/>
-    </row>
-    <row r="109" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C109" s="45"/>
-      <c r="D109" s="29"/>
-    </row>
-    <row r="110" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C110" s="45"/>
-      <c r="D110" s="29"/>
-    </row>
-    <row r="111" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C111" s="45"/>
-      <c r="D111" s="29"/>
-    </row>
-    <row r="112" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C112" s="45"/>
-      <c r="D112" s="29"/>
-    </row>
-    <row r="113" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C113" s="45"/>
-      <c r="D113" s="29"/>
-    </row>
-    <row r="114" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C114" s="45"/>
-      <c r="D114" s="29"/>
-    </row>
-    <row r="115" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C115" s="45"/>
-      <c r="D115" s="29"/>
-    </row>
-    <row r="116" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C116" s="45"/>
-      <c r="D116" s="29"/>
-    </row>
-    <row r="117" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C117" s="45"/>
-      <c r="D117" s="29"/>
-    </row>
-    <row r="118" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C118" s="45"/>
-      <c r="D118" s="29"/>
-    </row>
-    <row r="119" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C119" s="45"/>
-      <c r="D119" s="29"/>
-    </row>
-    <row r="120" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C120" s="45"/>
-      <c r="D120" s="29"/>
-    </row>
-    <row r="121" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C121" s="45"/>
-      <c r="D121" s="29"/>
-    </row>
-    <row r="122" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C122" s="45"/>
-      <c r="D122" s="29"/>
-    </row>
-    <row r="123" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C123" s="45"/>
-      <c r="D123" s="29"/>
-    </row>
-    <row r="124" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C124" s="45"/>
-      <c r="D124" s="29"/>
-    </row>
-    <row r="125" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C125" s="45"/>
-      <c r="D125" s="29"/>
-    </row>
-    <row r="126" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C126" s="45"/>
-      <c r="D126" s="29"/>
-    </row>
-    <row r="127" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C127" s="45"/>
-      <c r="D127" s="29"/>
-    </row>
-    <row r="128" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C128" s="45"/>
-      <c r="D128" s="29"/>
-    </row>
-    <row r="129" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C129" s="45"/>
-      <c r="D129" s="29"/>
-    </row>
-    <row r="130" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C130" s="45"/>
-      <c r="D130" s="29"/>
-    </row>
-    <row r="131" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C131" s="45"/>
-      <c r="D131" s="29"/>
-    </row>
-    <row r="132" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C132" s="45"/>
-      <c r="D132" s="29"/>
-    </row>
-    <row r="133" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C133" s="45"/>
-      <c r="D133" s="29"/>
-    </row>
-    <row r="134" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C134" s="45"/>
-      <c r="D134" s="29"/>
-    </row>
-    <row r="135" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C135" s="45"/>
-      <c r="D135" s="29"/>
-    </row>
-    <row r="136" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C136" s="45"/>
-      <c r="D136" s="29"/>
-    </row>
-    <row r="137" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C137" s="45"/>
-      <c r="D137" s="29"/>
-    </row>
-    <row r="138" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C138" s="45"/>
-      <c r="D138" s="29"/>
-    </row>
-    <row r="139" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C139" s="45"/>
-      <c r="D139" s="29"/>
-    </row>
-    <row r="140" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C140" s="45"/>
-      <c r="D140" s="29"/>
-    </row>
-    <row r="141" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C141" s="45"/>
-      <c r="D141" s="29"/>
-    </row>
-    <row r="142" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C142" s="45"/>
-      <c r="D142" s="29"/>
-    </row>
-    <row r="143" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C143" s="45"/>
-      <c r="D143" s="29"/>
-    </row>
-    <row r="144" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C144" s="45"/>
-      <c r="D144" s="29"/>
-    </row>
-    <row r="145" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C145" s="45"/>
-      <c r="D145" s="29"/>
-    </row>
-    <row r="146" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C146" s="45"/>
-      <c r="D146" s="29"/>
-    </row>
-    <row r="147" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C147" s="45"/>
-      <c r="D147" s="29"/>
-    </row>
-    <row r="148" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C148" s="45"/>
-      <c r="D148" s="29"/>
-    </row>
-    <row r="149" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C149" s="45"/>
-      <c r="D149" s="29"/>
-    </row>
-    <row r="150" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C150" s="45"/>
-      <c r="D150" s="29"/>
-    </row>
-    <row r="151" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C151" s="45"/>
-      <c r="D151" s="29"/>
-    </row>
-    <row r="152" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C152" s="45"/>
-      <c r="D152" s="29"/>
-    </row>
-    <row r="153" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C153" s="45"/>
-      <c r="D153" s="29"/>
-    </row>
-    <row r="154" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C154" s="45"/>
-      <c r="D154" s="29"/>
-    </row>
-    <row r="155" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C155" s="45"/>
-      <c r="D155" s="29"/>
-    </row>
-    <row r="156" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C156" s="45"/>
-      <c r="D156" s="29"/>
-    </row>
-    <row r="157" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C157" s="45"/>
-      <c r="D157" s="29"/>
-    </row>
-    <row r="158" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C158" s="45"/>
-      <c r="D158" s="29"/>
-    </row>
-    <row r="159" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C159" s="45"/>
-      <c r="D159" s="29"/>
-    </row>
-    <row r="160" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C160" s="45"/>
-      <c r="D160" s="29"/>
-    </row>
-    <row r="161" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C161" s="45"/>
-      <c r="D161" s="29"/>
-    </row>
-    <row r="162" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C162" s="45"/>
-      <c r="D162" s="29"/>
-    </row>
-    <row r="163" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C163" s="45"/>
-      <c r="D163" s="29"/>
-    </row>
-    <row r="164" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C164" s="45"/>
-      <c r="D164" s="29"/>
-    </row>
-    <row r="165" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C165" s="45"/>
-      <c r="D165" s="29"/>
-    </row>
-    <row r="166" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C166" s="45"/>
-      <c r="D166" s="29"/>
-    </row>
-    <row r="167" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C167" s="45"/>
-      <c r="D167" s="29"/>
-    </row>
-    <row r="168" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C168" s="45"/>
-      <c r="D168" s="29"/>
-    </row>
-    <row r="169" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C169" s="45"/>
-      <c r="D169" s="29"/>
-    </row>
-    <row r="170" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C170" s="45"/>
-      <c r="D170" s="29"/>
-    </row>
-    <row r="171" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C171" s="45"/>
-      <c r="D171" s="29"/>
-    </row>
-    <row r="172" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C172" s="45"/>
-      <c r="D172" s="29"/>
-    </row>
-    <row r="173" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C173" s="45"/>
-      <c r="D173" s="29"/>
-    </row>
-    <row r="174" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C174" s="45"/>
-      <c r="D174" s="29"/>
-    </row>
-    <row r="175" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C175" s="45"/>
-      <c r="D175" s="29"/>
-    </row>
-    <row r="176" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C176" s="45"/>
-      <c r="D176" s="29"/>
-    </row>
-    <row r="177" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C177" s="45"/>
-      <c r="D177" s="29"/>
-    </row>
-    <row r="178" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C178" s="45"/>
-      <c r="D178" s="29"/>
-    </row>
-    <row r="179" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C179" s="45"/>
-      <c r="D179" s="29"/>
-    </row>
-    <row r="180" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C180" s="45"/>
-      <c r="D180" s="29"/>
-    </row>
-    <row r="181" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C181" s="45"/>
-      <c r="D181" s="29"/>
-    </row>
-    <row r="182" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C182" s="45"/>
-      <c r="D182" s="29"/>
-    </row>
-    <row r="183" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C183" s="45"/>
-      <c r="D183" s="29"/>
-    </row>
-    <row r="184" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C184" s="45"/>
-      <c r="D184" s="29"/>
-    </row>
-    <row r="185" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C185" s="45"/>
-      <c r="D185" s="29"/>
-    </row>
-    <row r="186" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C186" s="45"/>
-      <c r="D186" s="29"/>
-    </row>
-    <row r="187" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C187" s="45"/>
-      <c r="D187" s="29"/>
-    </row>
-    <row r="188" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C188" s="45"/>
-      <c r="D188" s="29"/>
-    </row>
-    <row r="189" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C189" s="45"/>
-      <c r="D189" s="29"/>
-    </row>
-    <row r="190" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C190" s="45"/>
-      <c r="D190" s="29"/>
-    </row>
-    <row r="191" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C191" s="45"/>
-      <c r="D191" s="29"/>
-    </row>
-    <row r="192" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C192" s="45"/>
-      <c r="D192" s="29"/>
-    </row>
-    <row r="193" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C193" s="45"/>
-      <c r="D193" s="29"/>
-    </row>
-    <row r="194" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C194" s="45"/>
-      <c r="D194" s="29"/>
-    </row>
-    <row r="195" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C195" s="45"/>
-      <c r="D195" s="29"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="78"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="31"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.75">
+      <c r="B80" s="26"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="31"/>
+    </row>
+    <row r="81" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C81" s="43"/>
+      <c r="D81" s="27"/>
+    </row>
+    <row r="82" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C82" s="43"/>
+      <c r="D82" s="27"/>
+    </row>
+    <row r="83" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C83" s="43"/>
+      <c r="D83" s="27"/>
+    </row>
+    <row r="84" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C84" s="43"/>
+      <c r="D84" s="27"/>
+    </row>
+    <row r="85" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C85" s="43"/>
+      <c r="D85" s="27"/>
+    </row>
+    <row r="86" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C86" s="43"/>
+      <c r="D86" s="27"/>
+    </row>
+    <row r="87" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C87" s="43"/>
+      <c r="D87" s="27"/>
+    </row>
+    <row r="88" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C88" s="43"/>
+      <c r="D88" s="27"/>
+    </row>
+    <row r="89" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C89" s="43"/>
+      <c r="D89" s="27"/>
+    </row>
+    <row r="90" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C90" s="43"/>
+      <c r="D90" s="27"/>
+    </row>
+    <row r="91" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C91" s="43"/>
+      <c r="D91" s="27"/>
+    </row>
+    <row r="92" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C92" s="43"/>
+      <c r="D92" s="27"/>
+    </row>
+    <row r="93" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C93" s="43"/>
+      <c r="D93" s="27"/>
+    </row>
+    <row r="94" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C94" s="43"/>
+      <c r="D94" s="27"/>
+    </row>
+    <row r="95" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C95" s="43"/>
+      <c r="D95" s="27"/>
+    </row>
+    <row r="96" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C96" s="43"/>
+      <c r="D96" s="27"/>
+    </row>
+    <row r="97" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C97" s="43"/>
+      <c r="D97" s="27"/>
+    </row>
+    <row r="98" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C98" s="43"/>
+      <c r="D98" s="27"/>
+    </row>
+    <row r="99" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C99" s="43"/>
+      <c r="D99" s="27"/>
+    </row>
+    <row r="100" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C100" s="43"/>
+      <c r="D100" s="27"/>
+    </row>
+    <row r="101" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C101" s="43"/>
+      <c r="D101" s="27"/>
+    </row>
+    <row r="102" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C102" s="43"/>
+      <c r="D102" s="27"/>
+    </row>
+    <row r="103" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C103" s="43"/>
+      <c r="D103" s="27"/>
+    </row>
+    <row r="104" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C104" s="43"/>
+      <c r="D104" s="27"/>
+    </row>
+    <row r="105" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C105" s="43"/>
+      <c r="D105" s="27"/>
+    </row>
+    <row r="106" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C106" s="43"/>
+      <c r="D106" s="27"/>
+    </row>
+    <row r="107" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C107" s="43"/>
+      <c r="D107" s="27"/>
+    </row>
+    <row r="108" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C108" s="43"/>
+      <c r="D108" s="27"/>
+    </row>
+    <row r="109" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C109" s="43"/>
+      <c r="D109" s="27"/>
+    </row>
+    <row r="110" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C110" s="43"/>
+      <c r="D110" s="27"/>
+    </row>
+    <row r="111" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C111" s="43"/>
+      <c r="D111" s="27"/>
+    </row>
+    <row r="112" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C112" s="43"/>
+      <c r="D112" s="27"/>
+    </row>
+    <row r="113" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C113" s="43"/>
+      <c r="D113" s="27"/>
+    </row>
+    <row r="114" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C114" s="43"/>
+      <c r="D114" s="27"/>
+    </row>
+    <row r="115" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C115" s="43"/>
+      <c r="D115" s="27"/>
+    </row>
+    <row r="116" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C116" s="43"/>
+      <c r="D116" s="27"/>
+    </row>
+    <row r="117" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C117" s="43"/>
+      <c r="D117" s="27"/>
+    </row>
+    <row r="118" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C118" s="43"/>
+      <c r="D118" s="27"/>
+    </row>
+    <row r="119" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C119" s="43"/>
+      <c r="D119" s="27"/>
+    </row>
+    <row r="120" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C120" s="43"/>
+      <c r="D120" s="27"/>
+    </row>
+    <row r="121" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C121" s="43"/>
+      <c r="D121" s="27"/>
+    </row>
+    <row r="122" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C122" s="43"/>
+      <c r="D122" s="27"/>
+    </row>
+    <row r="123" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C123" s="43"/>
+      <c r="D123" s="27"/>
+    </row>
+    <row r="124" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C124" s="43"/>
+      <c r="D124" s="27"/>
+    </row>
+    <row r="125" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C125" s="43"/>
+      <c r="D125" s="27"/>
+    </row>
+    <row r="126" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C126" s="43"/>
+      <c r="D126" s="27"/>
+    </row>
+    <row r="127" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C127" s="43"/>
+      <c r="D127" s="27"/>
+    </row>
+    <row r="128" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C128" s="43"/>
+      <c r="D128" s="27"/>
+    </row>
+    <row r="129" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C129" s="43"/>
+      <c r="D129" s="27"/>
+    </row>
+    <row r="130" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C130" s="43"/>
+      <c r="D130" s="27"/>
+    </row>
+    <row r="131" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C131" s="43"/>
+      <c r="D131" s="27"/>
+    </row>
+    <row r="132" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C132" s="43"/>
+      <c r="D132" s="27"/>
+    </row>
+    <row r="133" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C133" s="43"/>
+      <c r="D133" s="27"/>
+    </row>
+    <row r="134" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C134" s="43"/>
+      <c r="D134" s="27"/>
+    </row>
+    <row r="135" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C135" s="43"/>
+      <c r="D135" s="27"/>
+    </row>
+    <row r="136" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C136" s="43"/>
+      <c r="D136" s="27"/>
+    </row>
+    <row r="137" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C137" s="43"/>
+      <c r="D137" s="27"/>
+    </row>
+    <row r="138" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C138" s="43"/>
+      <c r="D138" s="27"/>
+    </row>
+    <row r="139" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C139" s="43"/>
+      <c r="D139" s="27"/>
+    </row>
+    <row r="140" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C140" s="43"/>
+      <c r="D140" s="27"/>
+    </row>
+    <row r="141" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C141" s="43"/>
+      <c r="D141" s="27"/>
+    </row>
+    <row r="142" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C142" s="43"/>
+      <c r="D142" s="27"/>
+    </row>
+    <row r="143" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C143" s="43"/>
+      <c r="D143" s="27"/>
+    </row>
+    <row r="144" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C144" s="43"/>
+      <c r="D144" s="27"/>
+    </row>
+    <row r="145" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C145" s="43"/>
+      <c r="D145" s="27"/>
+    </row>
+    <row r="146" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C146" s="43"/>
+      <c r="D146" s="27"/>
+    </row>
+    <row r="147" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C147" s="43"/>
+      <c r="D147" s="27"/>
+    </row>
+    <row r="148" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C148" s="43"/>
+      <c r="D148" s="27"/>
+    </row>
+    <row r="149" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C149" s="43"/>
+      <c r="D149" s="27"/>
+    </row>
+    <row r="150" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C150" s="43"/>
+      <c r="D150" s="27"/>
+    </row>
+    <row r="151" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C151" s="43"/>
+      <c r="D151" s="27"/>
+    </row>
+    <row r="152" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C152" s="43"/>
+      <c r="D152" s="27"/>
+    </row>
+    <row r="153" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C153" s="43"/>
+      <c r="D153" s="27"/>
+    </row>
+    <row r="154" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C154" s="43"/>
+      <c r="D154" s="27"/>
+    </row>
+    <row r="155" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C155" s="43"/>
+      <c r="D155" s="27"/>
+    </row>
+    <row r="156" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C156" s="43"/>
+      <c r="D156" s="27"/>
+    </row>
+    <row r="157" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C157" s="43"/>
+      <c r="D157" s="27"/>
+    </row>
+    <row r="158" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C158" s="43"/>
+      <c r="D158" s="27"/>
+    </row>
+    <row r="159" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C159" s="43"/>
+      <c r="D159" s="27"/>
+    </row>
+    <row r="160" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C160" s="43"/>
+      <c r="D160" s="27"/>
+    </row>
+    <row r="161" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C161" s="43"/>
+      <c r="D161" s="27"/>
+    </row>
+    <row r="162" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C162" s="43"/>
+      <c r="D162" s="27"/>
+    </row>
+    <row r="163" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C163" s="43"/>
+      <c r="D163" s="27"/>
+    </row>
+    <row r="164" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C164" s="43"/>
+      <c r="D164" s="27"/>
+    </row>
+    <row r="165" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C165" s="43"/>
+      <c r="D165" s="27"/>
+    </row>
+    <row r="166" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C166" s="43"/>
+      <c r="D166" s="27"/>
+    </row>
+    <row r="167" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C167" s="43"/>
+      <c r="D167" s="27"/>
+    </row>
+    <row r="168" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C168" s="43"/>
+      <c r="D168" s="27"/>
+    </row>
+    <row r="169" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C169" s="43"/>
+      <c r="D169" s="27"/>
+    </row>
+    <row r="170" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C170" s="43"/>
+      <c r="D170" s="27"/>
+    </row>
+    <row r="171" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C171" s="43"/>
+      <c r="D171" s="27"/>
+    </row>
+    <row r="172" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C172" s="43"/>
+      <c r="D172" s="27"/>
+    </row>
+    <row r="173" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C173" s="43"/>
+      <c r="D173" s="27"/>
+    </row>
+    <row r="174" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C174" s="43"/>
+      <c r="D174" s="27"/>
+    </row>
+    <row r="175" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C175" s="43"/>
+      <c r="D175" s="27"/>
+    </row>
+    <row r="176" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C176" s="43"/>
+      <c r="D176" s="27"/>
+    </row>
+    <row r="177" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C177" s="43"/>
+      <c r="D177" s="27"/>
+    </row>
+    <row r="178" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C178" s="43"/>
+      <c r="D178" s="27"/>
+    </row>
+    <row r="179" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C179" s="43"/>
+      <c r="D179" s="27"/>
+    </row>
+    <row r="180" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C180" s="43"/>
+      <c r="D180" s="27"/>
+    </row>
+    <row r="181" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C181" s="43"/>
+      <c r="D181" s="27"/>
+    </row>
+    <row r="182" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C182" s="43"/>
+      <c r="D182" s="27"/>
+    </row>
+    <row r="183" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C183" s="43"/>
+      <c r="D183" s="27"/>
+    </row>
+    <row r="184" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C184" s="43"/>
+      <c r="D184" s="27"/>
+    </row>
+    <row r="185" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C185" s="43"/>
+      <c r="D185" s="27"/>
+    </row>
+    <row r="186" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C186" s="43"/>
+      <c r="D186" s="27"/>
+    </row>
+    <row r="187" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C187" s="43"/>
+      <c r="D187" s="27"/>
+    </row>
+    <row r="188" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C188" s="43"/>
+      <c r="D188" s="27"/>
+    </row>
+    <row r="189" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C189" s="43"/>
+      <c r="D189" s="27"/>
+    </row>
+    <row r="190" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C190" s="43"/>
+      <c r="D190" s="27"/>
+    </row>
+    <row r="191" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C191" s="43"/>
+      <c r="D191" s="27"/>
+    </row>
+    <row r="192" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C192" s="43"/>
+      <c r="D192" s="27"/>
+    </row>
+    <row r="193" spans="3:5" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C193" s="43"/>
+      <c r="D193" s="27"/>
+    </row>
+    <row r="194" spans="3:5" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C194" s="43"/>
+      <c r="D194" s="9"/>
+      <c r="E194"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3030,974 +3029,974 @@
   <dimension ref="A1:K168"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="4.6796875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="4.6796875" style="26" customWidth="1"/>
     <col min="2" max="2" width="24.31640625" customWidth="1"/>
-    <col min="3" max="3" width="34.26953125" style="50" customWidth="1"/>
-    <col min="4" max="4" width="28.76953125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="34.26953125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="28.76953125" style="9" customWidth="1"/>
     <col min="5" max="5" width="16.7265625" customWidth="1"/>
     <col min="6" max="6" width="41.04296875" customWidth="1"/>
-    <col min="7" max="7" width="16.58984375" style="28" customWidth="1"/>
-    <col min="8" max="11" width="8.7265625" style="28"/>
+    <col min="7" max="7" width="16.58984375" style="26" customWidth="1"/>
+    <col min="8" max="11" width="8.7265625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C1" s="45"/>
-      <c r="D1" s="30" t="s">
+    <row r="1" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C1" s="43"/>
+      <c r="D1" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C2" s="45"/>
-      <c r="D2" s="29"/>
-    </row>
-    <row r="3" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="45"/>
-      <c r="D3" s="29"/>
-    </row>
-    <row r="4" spans="1:7" s="28" customFormat="1" ht="34.5" x14ac:dyDescent="1.65">
-      <c r="B4" s="37" t="s">
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C2" s="43"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="43"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" s="26" customFormat="1" ht="34.5" x14ac:dyDescent="1.65">
+      <c r="B4" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C4" s="44"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
       <c r="B5" s="5"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
       <c r="B6" s="5"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="36"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B8" s="5"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="21.75" x14ac:dyDescent="1.1000000000000001">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="19"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:7" ht="21.75" x14ac:dyDescent="1.1000000000000001">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="19"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:7" ht="21.75" x14ac:dyDescent="1.1000000000000001">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="19"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B12" s="5"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B13" s="5"/>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="60" t="s">
+      <c r="E13" s="59"/>
+      <c r="F13" s="58" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="1.3">
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="70" t="s">
+      <c r="E14" s="86"/>
+      <c r="F14" s="68" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A15" s="51"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="55"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A16" s="51"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="72" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57" t="s">
+      <c r="E16" s="56"/>
+      <c r="F16" s="55" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A17" s="51"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="72" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="57" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="55" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A18" s="51"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="72" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="57" t="s">
+      <c r="E18" s="56"/>
+      <c r="F18" s="55" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A19" s="51"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="72" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="57" t="s">
+      <c r="E19" s="56"/>
+      <c r="F19" s="55" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A20" s="51"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="72" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="57" t="s">
+      <c r="E20" s="56"/>
+      <c r="F20" s="55" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A21" s="51"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="72" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="57" t="s">
+      <c r="E21" s="56"/>
+      <c r="F21" s="55" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A22" s="51"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="73" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="57" t="s">
+      <c r="E22" s="56"/>
+      <c r="F22" s="55" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A23" s="51"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="72" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="57" t="s">
+      <c r="E23" s="57"/>
+      <c r="F23" s="55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.75">
       <c r="B24" s="5"/>
-      <c r="D24" s="22"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.75">
       <c r="B25" s="5"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="22"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.75">
       <c r="B26" s="5"/>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="60" t="s">
+      <c r="E26" s="59"/>
+      <c r="F26" s="58" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="57" t="s">
+      <c r="E27" s="63"/>
+      <c r="F27" s="55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B28" s="68"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="67"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="65"/>
     </row>
     <row r="29" spans="1:6" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="B29" s="68"/>
-      <c r="C29" s="63" t="s">
+      <c r="B29" s="66"/>
+      <c r="C29" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="68"/>
-      <c r="F29" s="70" t="s">
+      <c r="E29" s="66"/>
+      <c r="F29" s="68" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B30" s="68"/>
-      <c r="C30" s="66" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="70" t="s">
+      <c r="E30" s="66"/>
+      <c r="F30" s="68" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B31" s="69"/>
-      <c r="C31" s="66" t="s">
+      <c r="B31" s="67"/>
+      <c r="C31" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="69"/>
-      <c r="F31" s="70" t="s">
+      <c r="E31" s="67"/>
+      <c r="F31" s="68" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="B32" s="14"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="15"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B33" s="28"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B34" s="28"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B35" s="28"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B36" s="28"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B37" s="28"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B38" s="28"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B39" s="28"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B40" s="28"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B41" s="28"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B42" s="28"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B43" s="28"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B44" s="28"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="75"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="73"/>
     </row>
     <row r="45" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B45" s="28"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="33"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="31"/>
     </row>
     <row r="46" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B46" s="28"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="33"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="31"/>
     </row>
     <row r="47" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B47" s="28"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="33"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="31"/>
     </row>
     <row r="48" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B48" s="28"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="33"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="31"/>
     </row>
     <row r="49" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B49" s="28"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="33"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="31"/>
     </row>
     <row r="50" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B50" s="28"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="33"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="31"/>
     </row>
     <row r="51" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B51" s="28"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="33"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="31"/>
     </row>
     <row r="52" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B52" s="28"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="33"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="31"/>
     </row>
     <row r="53" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B53" s="28"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="33"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="31"/>
     </row>
     <row r="54" spans="2:7" ht="15" x14ac:dyDescent="0.75">
-      <c r="B54" s="28"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="33"/>
-    </row>
-    <row r="55" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C55" s="45"/>
-      <c r="D55" s="29"/>
-    </row>
-    <row r="56" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C56" s="45"/>
-      <c r="D56" s="29"/>
-    </row>
-    <row r="57" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C57" s="45"/>
-      <c r="D57" s="29"/>
-    </row>
-    <row r="58" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C58" s="45"/>
-      <c r="D58" s="29"/>
-    </row>
-    <row r="59" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C59" s="45"/>
-      <c r="D59" s="29"/>
-    </row>
-    <row r="60" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C60" s="45"/>
-      <c r="D60" s="29"/>
-    </row>
-    <row r="61" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C61" s="45"/>
-      <c r="D61" s="29"/>
-    </row>
-    <row r="62" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C62" s="45"/>
-      <c r="D62" s="29"/>
-    </row>
-    <row r="63" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C63" s="45"/>
-      <c r="D63" s="29"/>
-    </row>
-    <row r="64" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C64" s="45"/>
-      <c r="D64" s="29"/>
-    </row>
-    <row r="65" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C65" s="45"/>
-      <c r="D65" s="29"/>
-    </row>
-    <row r="66" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C66" s="45"/>
-      <c r="D66" s="29"/>
-    </row>
-    <row r="67" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C67" s="45"/>
-      <c r="D67" s="29"/>
-    </row>
-    <row r="68" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C68" s="45"/>
-      <c r="D68" s="29"/>
-    </row>
-    <row r="69" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C69" s="45"/>
-      <c r="D69" s="29"/>
-    </row>
-    <row r="70" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C70" s="45"/>
-      <c r="D70" s="29"/>
-    </row>
-    <row r="71" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C71" s="45"/>
-      <c r="D71" s="29"/>
-    </row>
-    <row r="72" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C72" s="45"/>
-      <c r="D72" s="29"/>
-    </row>
-    <row r="73" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C73" s="45"/>
-      <c r="D73" s="29"/>
-    </row>
-    <row r="74" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C74" s="45"/>
-      <c r="D74" s="29"/>
-    </row>
-    <row r="75" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C75" s="45"/>
-      <c r="D75" s="29"/>
-    </row>
-    <row r="76" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C76" s="45"/>
-      <c r="D76" s="29"/>
-    </row>
-    <row r="77" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C77" s="45"/>
-      <c r="D77" s="29"/>
-    </row>
-    <row r="78" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C78" s="45"/>
-      <c r="D78" s="29"/>
-    </row>
-    <row r="79" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C79" s="45"/>
-      <c r="D79" s="29"/>
-    </row>
-    <row r="80" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C80" s="45"/>
-      <c r="D80" s="29"/>
-    </row>
-    <row r="81" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C81" s="45"/>
-      <c r="D81" s="29"/>
-    </row>
-    <row r="82" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C82" s="45"/>
-      <c r="D82" s="29"/>
-    </row>
-    <row r="83" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C83" s="45"/>
-      <c r="D83" s="29"/>
-    </row>
-    <row r="84" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C84" s="45"/>
-      <c r="D84" s="29"/>
-    </row>
-    <row r="85" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C85" s="45"/>
-      <c r="D85" s="29"/>
-    </row>
-    <row r="86" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C86" s="45"/>
-      <c r="D86" s="29"/>
-    </row>
-    <row r="87" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C87" s="45"/>
-      <c r="D87" s="29"/>
-    </row>
-    <row r="88" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C88" s="45"/>
-      <c r="D88" s="29"/>
-    </row>
-    <row r="89" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C89" s="45"/>
-      <c r="D89" s="29"/>
-    </row>
-    <row r="90" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C90" s="45"/>
-      <c r="D90" s="29"/>
-    </row>
-    <row r="91" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C91" s="45"/>
-      <c r="D91" s="29"/>
-    </row>
-    <row r="92" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C92" s="45"/>
-      <c r="D92" s="29"/>
-    </row>
-    <row r="93" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C93" s="45"/>
-      <c r="D93" s="29"/>
-    </row>
-    <row r="94" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C94" s="45"/>
-      <c r="D94" s="29"/>
-    </row>
-    <row r="95" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C95" s="45"/>
-      <c r="D95" s="29"/>
-    </row>
-    <row r="96" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C96" s="45"/>
-      <c r="D96" s="29"/>
-    </row>
-    <row r="97" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C97" s="45"/>
-      <c r="D97" s="29"/>
-    </row>
-    <row r="98" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C98" s="45"/>
-      <c r="D98" s="29"/>
-    </row>
-    <row r="99" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C99" s="45"/>
-      <c r="D99" s="29"/>
-    </row>
-    <row r="100" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C100" s="45"/>
-      <c r="D100" s="29"/>
-    </row>
-    <row r="101" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C101" s="45"/>
-      <c r="D101" s="29"/>
-    </row>
-    <row r="102" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C102" s="45"/>
-      <c r="D102" s="29"/>
-    </row>
-    <row r="103" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C103" s="45"/>
-      <c r="D103" s="29"/>
-    </row>
-    <row r="104" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C104" s="45"/>
-      <c r="D104" s="29"/>
-    </row>
-    <row r="105" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C105" s="45"/>
-      <c r="D105" s="29"/>
-    </row>
-    <row r="106" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C106" s="45"/>
-      <c r="D106" s="29"/>
-    </row>
-    <row r="107" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C107" s="45"/>
-      <c r="D107" s="29"/>
-    </row>
-    <row r="108" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C108" s="45"/>
-      <c r="D108" s="29"/>
-    </row>
-    <row r="109" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C109" s="45"/>
-      <c r="D109" s="29"/>
-    </row>
-    <row r="110" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C110" s="45"/>
-      <c r="D110" s="29"/>
-    </row>
-    <row r="111" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C111" s="45"/>
-      <c r="D111" s="29"/>
-    </row>
-    <row r="112" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C112" s="45"/>
-      <c r="D112" s="29"/>
-    </row>
-    <row r="113" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C113" s="45"/>
-      <c r="D113" s="29"/>
-    </row>
-    <row r="114" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C114" s="45"/>
-      <c r="D114" s="29"/>
-    </row>
-    <row r="115" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C115" s="45"/>
-      <c r="D115" s="29"/>
-    </row>
-    <row r="116" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C116" s="45"/>
-      <c r="D116" s="29"/>
-    </row>
-    <row r="117" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C117" s="45"/>
-      <c r="D117" s="29"/>
-    </row>
-    <row r="118" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C118" s="45"/>
-      <c r="D118" s="29"/>
-    </row>
-    <row r="119" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C119" s="45"/>
-      <c r="D119" s="29"/>
-    </row>
-    <row r="120" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C120" s="45"/>
-      <c r="D120" s="29"/>
-    </row>
-    <row r="121" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C121" s="45"/>
-      <c r="D121" s="29"/>
-    </row>
-    <row r="122" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C122" s="45"/>
-      <c r="D122" s="29"/>
-    </row>
-    <row r="123" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C123" s="45"/>
-      <c r="D123" s="29"/>
-    </row>
-    <row r="124" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C124" s="45"/>
-      <c r="D124" s="29"/>
-    </row>
-    <row r="125" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C125" s="45"/>
-      <c r="D125" s="29"/>
-    </row>
-    <row r="126" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C126" s="45"/>
-      <c r="D126" s="29"/>
-    </row>
-    <row r="127" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C127" s="45"/>
-      <c r="D127" s="29"/>
-    </row>
-    <row r="128" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C128" s="45"/>
-      <c r="D128" s="29"/>
-    </row>
-    <row r="129" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C129" s="45"/>
-      <c r="D129" s="29"/>
-    </row>
-    <row r="130" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C130" s="45"/>
-      <c r="D130" s="29"/>
-    </row>
-    <row r="131" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C131" s="45"/>
-      <c r="D131" s="29"/>
-    </row>
-    <row r="132" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C132" s="45"/>
-      <c r="D132" s="29"/>
-    </row>
-    <row r="133" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C133" s="45"/>
-      <c r="D133" s="29"/>
-    </row>
-    <row r="134" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C134" s="45"/>
-      <c r="D134" s="29"/>
-    </row>
-    <row r="135" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C135" s="45"/>
-      <c r="D135" s="29"/>
-    </row>
-    <row r="136" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C136" s="45"/>
-      <c r="D136" s="29"/>
-    </row>
-    <row r="137" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C137" s="45"/>
-      <c r="D137" s="29"/>
-    </row>
-    <row r="138" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C138" s="45"/>
-      <c r="D138" s="29"/>
-    </row>
-    <row r="139" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C139" s="45"/>
-      <c r="D139" s="29"/>
-    </row>
-    <row r="140" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C140" s="45"/>
-      <c r="D140" s="29"/>
-    </row>
-    <row r="141" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C141" s="45"/>
-      <c r="D141" s="29"/>
-    </row>
-    <row r="142" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C142" s="45"/>
-      <c r="D142" s="29"/>
-    </row>
-    <row r="143" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C143" s="45"/>
-      <c r="D143" s="29"/>
-    </row>
-    <row r="144" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C144" s="45"/>
-      <c r="D144" s="29"/>
-    </row>
-    <row r="145" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C145" s="45"/>
-      <c r="D145" s="29"/>
-    </row>
-    <row r="146" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C146" s="45"/>
-      <c r="D146" s="29"/>
-    </row>
-    <row r="147" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C147" s="45"/>
-      <c r="D147" s="29"/>
-    </row>
-    <row r="148" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C148" s="45"/>
-      <c r="D148" s="29"/>
-    </row>
-    <row r="149" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C149" s="45"/>
-      <c r="D149" s="29"/>
-    </row>
-    <row r="150" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C150" s="45"/>
-      <c r="D150" s="29"/>
-    </row>
-    <row r="151" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C151" s="45"/>
-      <c r="D151" s="29"/>
-    </row>
-    <row r="152" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C152" s="45"/>
-      <c r="D152" s="29"/>
-    </row>
-    <row r="153" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C153" s="45"/>
-      <c r="D153" s="29"/>
-    </row>
-    <row r="154" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C154" s="45"/>
-      <c r="D154" s="29"/>
-    </row>
-    <row r="155" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C155" s="45"/>
-      <c r="D155" s="29"/>
-    </row>
-    <row r="156" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C156" s="45"/>
-      <c r="D156" s="29"/>
-    </row>
-    <row r="157" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C157" s="45"/>
-      <c r="D157" s="29"/>
-    </row>
-    <row r="158" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C158" s="45"/>
-      <c r="D158" s="29"/>
-    </row>
-    <row r="159" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C159" s="45"/>
-      <c r="D159" s="29"/>
-    </row>
-    <row r="160" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C160" s="45"/>
-      <c r="D160" s="29"/>
-    </row>
-    <row r="161" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C161" s="45"/>
-      <c r="D161" s="29"/>
-    </row>
-    <row r="162" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C162" s="45"/>
-      <c r="D162" s="29"/>
-    </row>
-    <row r="163" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C163" s="45"/>
-      <c r="D163" s="29"/>
-    </row>
-    <row r="164" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C164" s="45"/>
-      <c r="D164" s="29"/>
-    </row>
-    <row r="165" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C165" s="45"/>
-      <c r="D165" s="29"/>
-    </row>
-    <row r="166" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C166" s="45"/>
-      <c r="D166" s="29"/>
-    </row>
-    <row r="167" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C167" s="45"/>
-      <c r="D167" s="29"/>
-    </row>
-    <row r="168" spans="3:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="C168" s="45"/>
-      <c r="D168" s="29"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="31"/>
+    </row>
+    <row r="55" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C55" s="43"/>
+      <c r="D55" s="27"/>
+    </row>
+    <row r="56" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C56" s="43"/>
+      <c r="D56" s="27"/>
+    </row>
+    <row r="57" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C57" s="43"/>
+      <c r="D57" s="27"/>
+    </row>
+    <row r="58" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C58" s="43"/>
+      <c r="D58" s="27"/>
+    </row>
+    <row r="59" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C59" s="43"/>
+      <c r="D59" s="27"/>
+    </row>
+    <row r="60" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C60" s="43"/>
+      <c r="D60" s="27"/>
+    </row>
+    <row r="61" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C61" s="43"/>
+      <c r="D61" s="27"/>
+    </row>
+    <row r="62" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C62" s="43"/>
+      <c r="D62" s="27"/>
+    </row>
+    <row r="63" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C63" s="43"/>
+      <c r="D63" s="27"/>
+    </row>
+    <row r="64" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C64" s="43"/>
+      <c r="D64" s="27"/>
+    </row>
+    <row r="65" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C65" s="43"/>
+      <c r="D65" s="27"/>
+    </row>
+    <row r="66" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C66" s="43"/>
+      <c r="D66" s="27"/>
+    </row>
+    <row r="67" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C67" s="43"/>
+      <c r="D67" s="27"/>
+    </row>
+    <row r="68" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C68" s="43"/>
+      <c r="D68" s="27"/>
+    </row>
+    <row r="69" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C69" s="43"/>
+      <c r="D69" s="27"/>
+    </row>
+    <row r="70" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C70" s="43"/>
+      <c r="D70" s="27"/>
+    </row>
+    <row r="71" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C71" s="43"/>
+      <c r="D71" s="27"/>
+    </row>
+    <row r="72" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C72" s="43"/>
+      <c r="D72" s="27"/>
+    </row>
+    <row r="73" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C73" s="43"/>
+      <c r="D73" s="27"/>
+    </row>
+    <row r="74" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C74" s="43"/>
+      <c r="D74" s="27"/>
+    </row>
+    <row r="75" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C75" s="43"/>
+      <c r="D75" s="27"/>
+    </row>
+    <row r="76" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C76" s="43"/>
+      <c r="D76" s="27"/>
+    </row>
+    <row r="77" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C77" s="43"/>
+      <c r="D77" s="27"/>
+    </row>
+    <row r="78" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C78" s="43"/>
+      <c r="D78" s="27"/>
+    </row>
+    <row r="79" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C79" s="43"/>
+      <c r="D79" s="27"/>
+    </row>
+    <row r="80" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C80" s="43"/>
+      <c r="D80" s="27"/>
+    </row>
+    <row r="81" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C81" s="43"/>
+      <c r="D81" s="27"/>
+    </row>
+    <row r="82" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C82" s="43"/>
+      <c r="D82" s="27"/>
+    </row>
+    <row r="83" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C83" s="43"/>
+      <c r="D83" s="27"/>
+    </row>
+    <row r="84" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C84" s="43"/>
+      <c r="D84" s="27"/>
+    </row>
+    <row r="85" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C85" s="43"/>
+      <c r="D85" s="27"/>
+    </row>
+    <row r="86" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C86" s="43"/>
+      <c r="D86" s="27"/>
+    </row>
+    <row r="87" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C87" s="43"/>
+      <c r="D87" s="27"/>
+    </row>
+    <row r="88" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C88" s="43"/>
+      <c r="D88" s="27"/>
+    </row>
+    <row r="89" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C89" s="43"/>
+      <c r="D89" s="27"/>
+    </row>
+    <row r="90" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C90" s="43"/>
+      <c r="D90" s="27"/>
+    </row>
+    <row r="91" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C91" s="43"/>
+      <c r="D91" s="27"/>
+    </row>
+    <row r="92" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C92" s="43"/>
+      <c r="D92" s="27"/>
+    </row>
+    <row r="93" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C93" s="43"/>
+      <c r="D93" s="27"/>
+    </row>
+    <row r="94" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C94" s="43"/>
+      <c r="D94" s="27"/>
+    </row>
+    <row r="95" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C95" s="43"/>
+      <c r="D95" s="27"/>
+    </row>
+    <row r="96" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C96" s="43"/>
+      <c r="D96" s="27"/>
+    </row>
+    <row r="97" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C97" s="43"/>
+      <c r="D97" s="27"/>
+    </row>
+    <row r="98" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C98" s="43"/>
+      <c r="D98" s="27"/>
+    </row>
+    <row r="99" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C99" s="43"/>
+      <c r="D99" s="27"/>
+    </row>
+    <row r="100" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C100" s="43"/>
+      <c r="D100" s="27"/>
+    </row>
+    <row r="101" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C101" s="43"/>
+      <c r="D101" s="27"/>
+    </row>
+    <row r="102" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C102" s="43"/>
+      <c r="D102" s="27"/>
+    </row>
+    <row r="103" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C103" s="43"/>
+      <c r="D103" s="27"/>
+    </row>
+    <row r="104" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C104" s="43"/>
+      <c r="D104" s="27"/>
+    </row>
+    <row r="105" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C105" s="43"/>
+      <c r="D105" s="27"/>
+    </row>
+    <row r="106" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C106" s="43"/>
+      <c r="D106" s="27"/>
+    </row>
+    <row r="107" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C107" s="43"/>
+      <c r="D107" s="27"/>
+    </row>
+    <row r="108" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C108" s="43"/>
+      <c r="D108" s="27"/>
+    </row>
+    <row r="109" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C109" s="43"/>
+      <c r="D109" s="27"/>
+    </row>
+    <row r="110" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C110" s="43"/>
+      <c r="D110" s="27"/>
+    </row>
+    <row r="111" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C111" s="43"/>
+      <c r="D111" s="27"/>
+    </row>
+    <row r="112" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C112" s="43"/>
+      <c r="D112" s="27"/>
+    </row>
+    <row r="113" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C113" s="43"/>
+      <c r="D113" s="27"/>
+    </row>
+    <row r="114" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C114" s="43"/>
+      <c r="D114" s="27"/>
+    </row>
+    <row r="115" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C115" s="43"/>
+      <c r="D115" s="27"/>
+    </row>
+    <row r="116" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C116" s="43"/>
+      <c r="D116" s="27"/>
+    </row>
+    <row r="117" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C117" s="43"/>
+      <c r="D117" s="27"/>
+    </row>
+    <row r="118" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C118" s="43"/>
+      <c r="D118" s="27"/>
+    </row>
+    <row r="119" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C119" s="43"/>
+      <c r="D119" s="27"/>
+    </row>
+    <row r="120" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C120" s="43"/>
+      <c r="D120" s="27"/>
+    </row>
+    <row r="121" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C121" s="43"/>
+      <c r="D121" s="27"/>
+    </row>
+    <row r="122" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C122" s="43"/>
+      <c r="D122" s="27"/>
+    </row>
+    <row r="123" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C123" s="43"/>
+      <c r="D123" s="27"/>
+    </row>
+    <row r="124" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C124" s="43"/>
+      <c r="D124" s="27"/>
+    </row>
+    <row r="125" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C125" s="43"/>
+      <c r="D125" s="27"/>
+    </row>
+    <row r="126" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C126" s="43"/>
+      <c r="D126" s="27"/>
+    </row>
+    <row r="127" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C127" s="43"/>
+      <c r="D127" s="27"/>
+    </row>
+    <row r="128" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C128" s="43"/>
+      <c r="D128" s="27"/>
+    </row>
+    <row r="129" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C129" s="43"/>
+      <c r="D129" s="27"/>
+    </row>
+    <row r="130" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C130" s="43"/>
+      <c r="D130" s="27"/>
+    </row>
+    <row r="131" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C131" s="43"/>
+      <c r="D131" s="27"/>
+    </row>
+    <row r="132" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C132" s="43"/>
+      <c r="D132" s="27"/>
+    </row>
+    <row r="133" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C133" s="43"/>
+      <c r="D133" s="27"/>
+    </row>
+    <row r="134" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C134" s="43"/>
+      <c r="D134" s="27"/>
+    </row>
+    <row r="135" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C135" s="43"/>
+      <c r="D135" s="27"/>
+    </row>
+    <row r="136" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C136" s="43"/>
+      <c r="D136" s="27"/>
+    </row>
+    <row r="137" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C137" s="43"/>
+      <c r="D137" s="27"/>
+    </row>
+    <row r="138" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C138" s="43"/>
+      <c r="D138" s="27"/>
+    </row>
+    <row r="139" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C139" s="43"/>
+      <c r="D139" s="27"/>
+    </row>
+    <row r="140" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C140" s="43"/>
+      <c r="D140" s="27"/>
+    </row>
+    <row r="141" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C141" s="43"/>
+      <c r="D141" s="27"/>
+    </row>
+    <row r="142" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C142" s="43"/>
+      <c r="D142" s="27"/>
+    </row>
+    <row r="143" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C143" s="43"/>
+      <c r="D143" s="27"/>
+    </row>
+    <row r="144" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C144" s="43"/>
+      <c r="D144" s="27"/>
+    </row>
+    <row r="145" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C145" s="43"/>
+      <c r="D145" s="27"/>
+    </row>
+    <row r="146" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C146" s="43"/>
+      <c r="D146" s="27"/>
+    </row>
+    <row r="147" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C147" s="43"/>
+      <c r="D147" s="27"/>
+    </row>
+    <row r="148" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C148" s="43"/>
+      <c r="D148" s="27"/>
+    </row>
+    <row r="149" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C149" s="43"/>
+      <c r="D149" s="27"/>
+    </row>
+    <row r="150" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C150" s="43"/>
+      <c r="D150" s="27"/>
+    </row>
+    <row r="151" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C151" s="43"/>
+      <c r="D151" s="27"/>
+    </row>
+    <row r="152" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C152" s="43"/>
+      <c r="D152" s="27"/>
+    </row>
+    <row r="153" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C153" s="43"/>
+      <c r="D153" s="27"/>
+    </row>
+    <row r="154" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C154" s="43"/>
+      <c r="D154" s="27"/>
+    </row>
+    <row r="155" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C155" s="43"/>
+      <c r="D155" s="27"/>
+    </row>
+    <row r="156" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C156" s="43"/>
+      <c r="D156" s="27"/>
+    </row>
+    <row r="157" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C157" s="43"/>
+      <c r="D157" s="27"/>
+    </row>
+    <row r="158" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C158" s="43"/>
+      <c r="D158" s="27"/>
+    </row>
+    <row r="159" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C159" s="43"/>
+      <c r="D159" s="27"/>
+    </row>
+    <row r="160" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C160" s="43"/>
+      <c r="D160" s="27"/>
+    </row>
+    <row r="161" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C161" s="43"/>
+      <c r="D161" s="27"/>
+    </row>
+    <row r="162" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C162" s="43"/>
+      <c r="D162" s="27"/>
+    </row>
+    <row r="163" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C163" s="43"/>
+      <c r="D163" s="27"/>
+    </row>
+    <row r="164" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C164" s="43"/>
+      <c r="D164" s="27"/>
+    </row>
+    <row r="165" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C165" s="43"/>
+      <c r="D165" s="27"/>
+    </row>
+    <row r="166" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C166" s="43"/>
+      <c r="D166" s="27"/>
+    </row>
+    <row r="167" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C167" s="43"/>
+      <c r="D167" s="27"/>
+    </row>
+    <row r="168" spans="3:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C168" s="43"/>
+      <c r="D168" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
@@ -4009,620 +4008,620 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BDDC9E-037F-4A19-9345-EA3F702B4B09}">
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="4.6796875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="4.6796875" style="26" customWidth="1"/>
     <col min="2" max="2" width="11.86328125" customWidth="1"/>
     <col min="3" max="3" width="12.40625" customWidth="1"/>
-    <col min="4" max="4" width="28.76953125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="28.76953125" style="9" customWidth="1"/>
     <col min="5" max="5" width="50.36328125" customWidth="1"/>
     <col min="6" max="6" width="41.04296875" customWidth="1"/>
-    <col min="7" max="7" width="16.58984375" style="28" customWidth="1"/>
-    <col min="8" max="11" width="8.7265625" style="28"/>
+    <col min="7" max="7" width="16.58984375" style="26" customWidth="1"/>
+    <col min="8" max="11" width="8.7265625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D1" s="30" t="s">
+    <row r="1" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D2" s="29"/>
-    </row>
-    <row r="3" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D3" s="29"/>
-    </row>
-    <row r="4" spans="2:7" s="28" customFormat="1" ht="34.5" x14ac:dyDescent="1.65">
-      <c r="B4" s="37" t="s">
+    <row r="2" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="2:7" s="26" customFormat="1" ht="34.5" x14ac:dyDescent="1.65">
+      <c r="B4" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="2:7" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="1.65">
-      <c r="B5" s="43"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="44"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="2:7" s="26" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="1.65">
+      <c r="B5" s="41"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.75">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B7" s="5"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="22"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:7" ht="21.75" x14ac:dyDescent="1.1000000000000001">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="19"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="2:7" ht="21.75" x14ac:dyDescent="1.1000000000000001">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="19"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="2:7" ht="21.75" x14ac:dyDescent="1.1000000000000001">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="19"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B11" s="5"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="22"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.75">
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="24.5" x14ac:dyDescent="0.75">
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="24.5" x14ac:dyDescent="0.75">
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="24.5" x14ac:dyDescent="0.75">
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="24.5" x14ac:dyDescent="0.75">
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="24.5" x14ac:dyDescent="0.75">
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="24.5" x14ac:dyDescent="0.75">
       <c r="B18" s="5"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="31" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="24.5" x14ac:dyDescent="0.75">
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="24.5" x14ac:dyDescent="0.75">
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.75">
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="31" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" x14ac:dyDescent="0.75">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D23" s="29"/>
-    </row>
-    <row r="24" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D27" s="29"/>
-    </row>
-    <row r="28" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D28" s="29"/>
-    </row>
-    <row r="29" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D29" s="29"/>
-    </row>
-    <row r="30" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D30" s="29"/>
-    </row>
-    <row r="31" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D31" s="29"/>
-    </row>
-    <row r="32" spans="2:7" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D32" s="29"/>
-    </row>
-    <row r="33" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D33" s="29"/>
-    </row>
-    <row r="34" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D34" s="29"/>
-    </row>
-    <row r="35" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D35" s="29"/>
-    </row>
-    <row r="36" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D36" s="29"/>
-    </row>
-    <row r="37" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D37" s="29"/>
-    </row>
-    <row r="38" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D38" s="29"/>
-    </row>
-    <row r="39" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D39" s="29"/>
-    </row>
-    <row r="40" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D40" s="29"/>
-    </row>
-    <row r="41" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D41" s="29"/>
-    </row>
-    <row r="42" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D42" s="29"/>
-    </row>
-    <row r="43" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D43" s="29"/>
-    </row>
-    <row r="44" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D44" s="29"/>
-    </row>
-    <row r="45" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D45" s="29"/>
-    </row>
-    <row r="46" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D46" s="29"/>
-    </row>
-    <row r="47" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D47" s="29"/>
-    </row>
-    <row r="48" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D48" s="29"/>
-    </row>
-    <row r="49" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D49" s="29"/>
-    </row>
-    <row r="50" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D50" s="29"/>
-    </row>
-    <row r="51" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D51" s="29"/>
-    </row>
-    <row r="52" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D52" s="29"/>
-    </row>
-    <row r="53" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D53" s="29"/>
-    </row>
-    <row r="54" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D54" s="29"/>
-    </row>
-    <row r="55" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D55" s="29"/>
-    </row>
-    <row r="56" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D56" s="29"/>
-    </row>
-    <row r="57" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D57" s="29"/>
-    </row>
-    <row r="58" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D58" s="29"/>
-    </row>
-    <row r="59" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D59" s="29"/>
-    </row>
-    <row r="60" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D60" s="29"/>
-    </row>
-    <row r="61" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D61" s="29"/>
-    </row>
-    <row r="62" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D62" s="29"/>
-    </row>
-    <row r="63" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D63" s="29"/>
-    </row>
-    <row r="64" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D64" s="29"/>
-    </row>
-    <row r="65" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D65" s="29"/>
-    </row>
-    <row r="66" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D66" s="29"/>
-    </row>
-    <row r="67" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D67" s="29"/>
-    </row>
-    <row r="68" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D68" s="29"/>
-    </row>
-    <row r="69" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D69" s="29"/>
-    </row>
-    <row r="70" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D70" s="29"/>
-    </row>
-    <row r="71" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D71" s="29"/>
-    </row>
-    <row r="72" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D72" s="29"/>
-    </row>
-    <row r="73" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D73" s="29"/>
-    </row>
-    <row r="74" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D74" s="29"/>
-    </row>
-    <row r="75" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D75" s="29"/>
-    </row>
-    <row r="76" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D76" s="29"/>
-    </row>
-    <row r="77" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D77" s="29"/>
-    </row>
-    <row r="78" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D78" s="29"/>
-    </row>
-    <row r="79" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D79" s="29"/>
-    </row>
-    <row r="80" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D80" s="29"/>
-    </row>
-    <row r="81" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D81" s="29"/>
-    </row>
-    <row r="82" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D82" s="29"/>
-    </row>
-    <row r="83" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D83" s="29"/>
-    </row>
-    <row r="84" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D84" s="29"/>
-    </row>
-    <row r="85" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D85" s="29"/>
-    </row>
-    <row r="86" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D86" s="29"/>
-    </row>
-    <row r="87" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D87" s="29"/>
-    </row>
-    <row r="88" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D88" s="29"/>
-    </row>
-    <row r="89" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D89" s="29"/>
-    </row>
-    <row r="90" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D90" s="29"/>
-    </row>
-    <row r="91" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D91" s="29"/>
-    </row>
-    <row r="92" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D92" s="29"/>
-    </row>
-    <row r="93" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D93" s="29"/>
-    </row>
-    <row r="94" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D94" s="29"/>
-    </row>
-    <row r="95" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D95" s="29"/>
-    </row>
-    <row r="96" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D96" s="29"/>
-    </row>
-    <row r="97" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D97" s="29"/>
-    </row>
-    <row r="98" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D98" s="29"/>
-    </row>
-    <row r="99" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D99" s="29"/>
-    </row>
-    <row r="100" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D100" s="29"/>
-    </row>
-    <row r="101" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D101" s="29"/>
-    </row>
-    <row r="102" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D102" s="29"/>
-    </row>
-    <row r="103" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D103" s="29"/>
-    </row>
-    <row r="104" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D104" s="29"/>
-    </row>
-    <row r="105" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D105" s="29"/>
-    </row>
-    <row r="106" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D106" s="29"/>
-    </row>
-    <row r="107" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D107" s="29"/>
-    </row>
-    <row r="108" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D108" s="29"/>
-    </row>
-    <row r="109" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D109" s="29"/>
-    </row>
-    <row r="110" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D110" s="29"/>
-    </row>
-    <row r="111" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D111" s="29"/>
-    </row>
-    <row r="112" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D112" s="29"/>
-    </row>
-    <row r="113" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D113" s="29"/>
-    </row>
-    <row r="114" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D114" s="29"/>
-    </row>
-    <row r="115" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D115" s="29"/>
-    </row>
-    <row r="116" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D116" s="29"/>
-    </row>
-    <row r="117" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D117" s="29"/>
-    </row>
-    <row r="118" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D118" s="29"/>
-    </row>
-    <row r="119" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D119" s="29"/>
-    </row>
-    <row r="120" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D120" s="29"/>
-    </row>
-    <row r="121" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D121" s="29"/>
-    </row>
-    <row r="122" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D122" s="29"/>
-    </row>
-    <row r="123" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D123" s="29"/>
-    </row>
-    <row r="124" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D124" s="29"/>
-    </row>
-    <row r="125" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D125" s="29"/>
-    </row>
-    <row r="126" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D126" s="29"/>
-    </row>
-    <row r="127" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D127" s="29"/>
-    </row>
-    <row r="128" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D128" s="29"/>
-    </row>
-    <row r="129" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D129" s="29"/>
-    </row>
-    <row r="130" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D130" s="29"/>
-    </row>
-    <row r="131" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D131" s="29"/>
-    </row>
-    <row r="132" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D132" s="29"/>
-    </row>
-    <row r="133" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D133" s="29"/>
-    </row>
-    <row r="134" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D134" s="29"/>
-    </row>
-    <row r="135" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D135" s="29"/>
-    </row>
-    <row r="136" spans="4:4" s="28" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="D136" s="29"/>
+    <row r="23" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D26" s="27"/>
+    </row>
+    <row r="27" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D27" s="27"/>
+    </row>
+    <row r="28" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D28" s="27"/>
+    </row>
+    <row r="29" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D29" s="27"/>
+    </row>
+    <row r="30" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D30" s="27"/>
+    </row>
+    <row r="31" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D31" s="27"/>
+    </row>
+    <row r="32" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D32" s="27"/>
+    </row>
+    <row r="33" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D33" s="27"/>
+    </row>
+    <row r="34" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D34" s="27"/>
+    </row>
+    <row r="35" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D35" s="27"/>
+    </row>
+    <row r="36" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D36" s="27"/>
+    </row>
+    <row r="37" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D37" s="27"/>
+    </row>
+    <row r="38" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D38" s="27"/>
+    </row>
+    <row r="39" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D39" s="27"/>
+    </row>
+    <row r="40" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D40" s="27"/>
+    </row>
+    <row r="41" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D41" s="27"/>
+    </row>
+    <row r="42" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D42" s="27"/>
+    </row>
+    <row r="43" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D43" s="27"/>
+    </row>
+    <row r="44" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D44" s="27"/>
+    </row>
+    <row r="45" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D45" s="27"/>
+    </row>
+    <row r="46" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D46" s="27"/>
+    </row>
+    <row r="47" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D47" s="27"/>
+    </row>
+    <row r="48" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D48" s="27"/>
+    </row>
+    <row r="49" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D49" s="27"/>
+    </row>
+    <row r="50" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D50" s="27"/>
+    </row>
+    <row r="51" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D51" s="27"/>
+    </row>
+    <row r="52" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D52" s="27"/>
+    </row>
+    <row r="53" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D53" s="27"/>
+    </row>
+    <row r="54" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D54" s="27"/>
+    </row>
+    <row r="55" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D55" s="27"/>
+    </row>
+    <row r="56" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D56" s="27"/>
+    </row>
+    <row r="57" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D57" s="27"/>
+    </row>
+    <row r="58" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D58" s="27"/>
+    </row>
+    <row r="59" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D59" s="27"/>
+    </row>
+    <row r="60" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D60" s="27"/>
+    </row>
+    <row r="61" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D61" s="27"/>
+    </row>
+    <row r="62" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D62" s="27"/>
+    </row>
+    <row r="63" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D63" s="27"/>
+    </row>
+    <row r="64" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D64" s="27"/>
+    </row>
+    <row r="65" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D65" s="27"/>
+    </row>
+    <row r="66" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D66" s="27"/>
+    </row>
+    <row r="67" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D67" s="27"/>
+    </row>
+    <row r="68" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D68" s="27"/>
+    </row>
+    <row r="69" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D69" s="27"/>
+    </row>
+    <row r="70" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D70" s="27"/>
+    </row>
+    <row r="71" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D71" s="27"/>
+    </row>
+    <row r="72" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D72" s="27"/>
+    </row>
+    <row r="73" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D73" s="27"/>
+    </row>
+    <row r="74" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D74" s="27"/>
+    </row>
+    <row r="75" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D75" s="27"/>
+    </row>
+    <row r="76" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D76" s="27"/>
+    </row>
+    <row r="77" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D77" s="27"/>
+    </row>
+    <row r="78" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D78" s="27"/>
+    </row>
+    <row r="79" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D79" s="27"/>
+    </row>
+    <row r="80" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D80" s="27"/>
+    </row>
+    <row r="81" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D81" s="27"/>
+    </row>
+    <row r="82" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D82" s="27"/>
+    </row>
+    <row r="83" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D83" s="27"/>
+    </row>
+    <row r="84" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D84" s="27"/>
+    </row>
+    <row r="85" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D85" s="27"/>
+    </row>
+    <row r="86" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D86" s="27"/>
+    </row>
+    <row r="87" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D87" s="27"/>
+    </row>
+    <row r="88" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D88" s="27"/>
+    </row>
+    <row r="89" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D89" s="27"/>
+    </row>
+    <row r="90" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D90" s="27"/>
+    </row>
+    <row r="91" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D91" s="27"/>
+    </row>
+    <row r="92" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D92" s="27"/>
+    </row>
+    <row r="93" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D93" s="27"/>
+    </row>
+    <row r="94" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D94" s="27"/>
+    </row>
+    <row r="95" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D95" s="27"/>
+    </row>
+    <row r="96" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D96" s="27"/>
+    </row>
+    <row r="97" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D97" s="27"/>
+    </row>
+    <row r="98" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D98" s="27"/>
+    </row>
+    <row r="99" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D99" s="27"/>
+    </row>
+    <row r="100" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D100" s="27"/>
+    </row>
+    <row r="101" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D101" s="27"/>
+    </row>
+    <row r="102" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D102" s="27"/>
+    </row>
+    <row r="103" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D103" s="27"/>
+    </row>
+    <row r="104" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D104" s="27"/>
+    </row>
+    <row r="105" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D105" s="27"/>
+    </row>
+    <row r="106" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D106" s="27"/>
+    </row>
+    <row r="107" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D107" s="27"/>
+    </row>
+    <row r="108" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D108" s="27"/>
+    </row>
+    <row r="109" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D109" s="27"/>
+    </row>
+    <row r="110" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D110" s="27"/>
+    </row>
+    <row r="111" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D111" s="27"/>
+    </row>
+    <row r="112" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D112" s="27"/>
+    </row>
+    <row r="113" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D113" s="27"/>
+    </row>
+    <row r="114" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D114" s="27"/>
+    </row>
+    <row r="115" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D115" s="27"/>
+    </row>
+    <row r="116" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D116" s="27"/>
+    </row>
+    <row r="117" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D117" s="27"/>
+    </row>
+    <row r="118" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D118" s="27"/>
+    </row>
+    <row r="119" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D119" s="27"/>
+    </row>
+    <row r="120" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D120" s="27"/>
+    </row>
+    <row r="121" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D121" s="27"/>
+    </row>
+    <row r="122" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D122" s="27"/>
+    </row>
+    <row r="123" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D123" s="27"/>
+    </row>
+    <row r="124" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D124" s="27"/>
+    </row>
+    <row r="125" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D125" s="27"/>
+    </row>
+    <row r="126" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D126" s="27"/>
+    </row>
+    <row r="127" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D127" s="27"/>
+    </row>
+    <row r="128" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D128" s="27"/>
+    </row>
+    <row r="129" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D129" s="27"/>
+    </row>
+    <row r="130" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D130" s="27"/>
+    </row>
+    <row r="131" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D131" s="27"/>
+    </row>
+    <row r="132" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D132" s="27"/>
+    </row>
+    <row r="133" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D133" s="27"/>
+    </row>
+    <row r="134" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D134" s="27"/>
+    </row>
+    <row r="135" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D135" s="27"/>
+    </row>
+    <row r="136" spans="4:4" s="26" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="D136" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/contextspecific/context_info.xlsx
+++ b/contextspecific/context_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/Analysis/MSNAEducation/contextspecific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="578" documentId="8_{0D5FD4D3-65A8-4B21-9AB8-E9E825B880B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E45A537A-8F10-4E7B-B5CD-43C58456DCAB}"/>
+  <xr:revisionPtr revIDLastSave="580" documentId="8_{0D5FD4D3-65A8-4B21-9AB8-E9E825B880B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA09220B-C360-4FD3-B76E-1A990419B88D}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11265" activeTab="3" xr2:uid="{E7005411-AC04-408A-88F1-7D900FA9C136}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11265" activeTab="1" xr2:uid="{E7005411-AC04-408A-88F1-7D900FA9C136}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -828,18 +828,12 @@
     <t>level6</t>
   </si>
   <si>
-    <t>kindergarden, 4,3</t>
-  </si>
-  <si>
     <t>primary, 7, 8</t>
   </si>
   <si>
     <t>lower secondary, 15, 2</t>
   </si>
   <si>
-    <t>upper secondary, 17, 2</t>
-  </si>
-  <si>
     <t>level7</t>
   </si>
   <si>
@@ -853,6 +847,12 @@
   </si>
   <si>
     <t>august</t>
+  </si>
+  <si>
+    <t>écoles maternelles, 4,3</t>
+  </si>
+  <si>
+    <t>secondaire deuxième cycle, 17, 2</t>
   </si>
 </sst>
 </file>
@@ -1907,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED9E328-A731-4E3C-8AA8-F5577ADA7429}">
   <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -2036,7 +2036,7 @@
         <v>82</v>
       </c>
       <c r="E14" s="103" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -2049,7 +2049,7 @@
         <v>83</v>
       </c>
       <c r="E15" s="103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -2062,7 +2062,7 @@
         <v>84</v>
       </c>
       <c r="E16" s="103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F16" s="4"/>
     </row>
@@ -2075,7 +2075,7 @@
         <v>85</v>
       </c>
       <c r="E17" s="103" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -2105,7 +2105,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="105"/>
       <c r="D20" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E20" s="103" t="s">
         <v>96</v>
@@ -2126,20 +2126,20 @@
         <v>92</v>
       </c>
       <c r="E22" s="103" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.75">
       <c r="B23" s="5"/>
       <c r="C23" s="94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F23" s="4"/>
     </row>
@@ -4008,7 +4008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BDDC9E-037F-4A19-9345-EA3F702B4B09}">
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B8" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
